--- a/COCOMO 81/G6-COCOMO81-COMPLETO.xlsx
+++ b/COCOMO 81/G6-COCOMO81-COMPLETO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OCT24-MAR25\INTERCULTURALIDAD\P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\2627_DSA\COCOMO 81\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B678CEB-F4E7-4E08-8820-50839019D963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E0EB5-81D6-4FD0-A337-9A7480B351BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B28FAA9A-B1AC-4DFE-87D9-67EADA5126ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B28FAA9A-B1AC-4DFE-87D9-67EADA5126ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,9 @@
     <t>1,15*1,08</t>
   </si>
   <si>
-    <t>3*200^1,12*1,24</t>
-  </si>
-  <si>
     <t>B. Duración</t>
   </si>
   <si>
-    <t>2,5*(1407,07)^0,35</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>1405,07/31,61</t>
   </si>
   <si>
     <t>personas.mes</t>
@@ -381,6 +372,15 @@
   </si>
   <si>
     <t>Gestión de config.</t>
+  </si>
+  <si>
+    <t>3*200^1,12</t>
+  </si>
+  <si>
+    <t>2,5*(1133,12)^0,35</t>
+  </si>
+  <si>
+    <t>1133,12/29,30</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,16 +647,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -665,23 +668,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +680,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,15 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,27 +716,40 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,15 +950,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>495013</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>585105</xdr:colOff>
+      <xdr:colOff>158151</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>173402</xdr:rowOff>
+      <xdr:rowOff>172530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -972,16 +973,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect r="35524" b="263"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5783580" y="2217420"/>
-          <a:ext cx="1933845" cy="333422"/>
+          <a:off x="2076522" y="4875219"/>
+          <a:ext cx="1244648" cy="329386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5155,18 +5155,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A635D986-2436-49BC-B10A-C7A2078127A5}">
   <dimension ref="A2:Y103"/>
   <sheetViews>
-    <sheetView topLeftCell="D44" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87:Q92"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="106" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
@@ -5180,10 +5180,10 @@
       <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2">
         <v>200</v>
       </c>
@@ -5203,16 +5203,16 @@
       <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="2">
         <v>500</v>
       </c>
@@ -5250,10 +5250,8 @@
       <c r="Y8" s="15"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D9" s="33">
-        <v>500000</v>
-      </c>
-      <c r="E9" s="33"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
       <c r="I9" s="14"/>
       <c r="Y9" s="15"/>
     </row>
@@ -5263,10 +5261,11 @@
       <c r="Y10" s="15"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="I11" s="14"/>
       <c r="Y11" s="15"/>
     </row>
@@ -5277,48 +5276,48 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I13" s="14"/>
       <c r="J13" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Y13" s="15"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I14" s="14"/>
-      <c r="J14" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
       <c r="Y14" s="15"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="31"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
       <c r="Y15" s="15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I16" s="14"/>
-      <c r="J16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="Y16" s="15"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I17" s="14"/>
-      <c r="J17" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
       <c r="Y17" s="15"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -5334,54 +5333,54 @@
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="J19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
       <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="G20" s="15"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
       <c r="Y20" s="15"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="G21" s="15"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
       <c r="Y21" s="15"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="G22" s="15"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
       <c r="Y22" s="15"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -5404,13 +5403,13 @@
       <c r="G24" s="15"/>
       <c r="I24" s="14"/>
       <c r="J24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
+        <v>35</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
       <c r="Y24" s="15"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -5424,36 +5423,36 @@
       </c>
       <c r="G25" s="15"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="15"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="G26" s="15"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -5461,25 +5460,25 @@
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="G27" s="15"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="15"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -5487,26 +5486,26 @@
       <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
       <c r="G28" s="15">
         <f>200^1.12</f>
         <v>377.70574894572468</v>
       </c>
       <c r="I28" s="14"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
       <c r="Y28" s="15"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -5514,9 +5513,9 @@
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
       <c r="G29" s="15"/>
       <c r="I29" s="14"/>
       <c r="Y29" s="15"/>
@@ -5528,16 +5527,16 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="15"/>
       <c r="I30" s="14"/>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Y30" s="15"/>
     </row>
@@ -5547,29 +5546,29 @@
         <v>17</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="35">
-        <f>3*G28*1.24</f>
-        <v>1405.0653860780958</v>
-      </c>
-      <c r="E31" s="35"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="53">
+        <f>3*G28</f>
+        <v>1133.117246837174</v>
+      </c>
+      <c r="E31" s="53"/>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G31" s="15"/>
       <c r="I31" s="14"/>
       <c r="J31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
       <c r="R31" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S31" s="21"/>
       <c r="Y31" s="15"/>
@@ -5579,68 +5578,68 @@
       <c r="G32" s="15"/>
       <c r="I32" s="14"/>
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="W32" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="R32" s="33"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="W32" s="43"/>
       <c r="Y32" s="15"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="C33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="C33" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
       <c r="G33" s="15"/>
       <c r="I33" s="14"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="49"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45"/>
       <c r="Y33" s="15"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
       <c r="G34" s="15"/>
       <c r="I34" s="14"/>
       <c r="K34" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="51"/>
+        <v>42</v>
+      </c>
+      <c r="R34" s="39"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="47"/>
       <c r="Y34" s="15"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
       <c r="G35" s="15"/>
       <c r="I35" s="14"/>
       <c r="K35" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -5658,23 +5657,23 @@
       <c r="A36" s="14"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2"/>
       <c r="G36" s="16">
-        <f>1407.07^0.35</f>
-        <v>12.644757248302422</v>
+        <f>1133.12^0.35</f>
+        <v>11.721860990435081</v>
       </c>
       <c r="I36" s="14"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="25">
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="49">
         <v>6.8099999999999994E-2</v>
       </c>
       <c r="R36" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S36" s="21"/>
       <c r="V36" s="24"/>
@@ -5684,57 +5683,57 @@
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="C37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="35">
+        <v>22</v>
+      </c>
+      <c r="D37" s="53">
         <f>2.5*G36</f>
-        <v>31.611893120756058</v>
-      </c>
-      <c r="E37" s="35"/>
+        <v>29.304652476087703</v>
+      </c>
+      <c r="E37" s="53"/>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G37" s="15"/>
       <c r="I37" s="14"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="26"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="W37" s="47"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="50"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="W37" s="43"/>
       <c r="Y37" s="15"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="G38" s="15"/>
       <c r="I38" s="14"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="27"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="49"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="51"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="45"/>
       <c r="Y38" s="15"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="C39" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="C39" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="G39" s="15"/>
       <c r="I39" s="14"/>
       <c r="K39" s="2"/>
@@ -5742,23 +5741,23 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="51"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="47"/>
       <c r="Y39" s="15"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
       <c r="G40" s="15"/>
       <c r="I40" s="14"/>
       <c r="K40" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -5774,20 +5773,20 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="G41" s="15"/>
       <c r="I41" s="14"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="25">
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="49">
         <v>0.1681</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -5799,53 +5798,53 @@
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="31"/>
+      <c r="D42" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="48"/>
       <c r="G42" s="15"/>
       <c r="I42" s="14"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="26"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="39"/>
-      <c r="V42" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="W42" s="47"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="50"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="W42" s="43"/>
       <c r="Y42" s="15"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="C43" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="35">
-        <f>1405.07/31.61</f>
-        <v>44.450173995571021</v>
-      </c>
-      <c r="E43" s="35"/>
+        <v>24</v>
+      </c>
+      <c r="D43" s="53">
+        <f>1133.12/29.3</f>
+        <v>38.673037542662108</v>
+      </c>
+      <c r="E43" s="53"/>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G43" s="15"/>
       <c r="I43" s="14"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="27"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="49"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="51"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="45"/>
       <c r="Y43" s="15"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -5862,18 +5861,18 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="50"/>
-      <c r="W44" s="51"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="47"/>
       <c r="Y44" s="15"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I45" s="14"/>
       <c r="K45" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5889,15 +5888,15 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I46" s="14"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="25">
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49">
         <v>0.56379999999999997</v>
       </c>
       <c r="R46" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
@@ -5907,34 +5906,34 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I47" s="14"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="26"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="W47" s="47"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="50"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="43"/>
       <c r="Y47" s="15"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I48" s="14"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="27"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="49"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="51"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="45"/>
       <c r="Y48" s="15"/>
     </row>
     <row r="49" spans="9:25" x14ac:dyDescent="0.3">
@@ -5944,18 +5943,18 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="51"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="47"/>
       <c r="Y49" s="15"/>
     </row>
     <row r="50" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I50" s="14"/>
       <c r="K50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5965,135 +5964,135 @@
     </row>
     <row r="51" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I51" s="14"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="25">
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="49">
         <v>0.19189999999999999</v>
       </c>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="15"/>
     </row>
     <row r="52" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I52" s="14"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="26"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="50"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
       <c r="Y52" s="15"/>
     </row>
     <row r="53" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I53" s="14"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="27"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="51"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
       <c r="Y53" s="15"/>
     </row>
     <row r="54" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I54" s="14"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
       <c r="Y54" s="15"/>
     </row>
     <row r="55" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I55" s="14"/>
       <c r="K55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Y55" s="15"/>
     </row>
     <row r="56" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I56" s="14"/>
       <c r="K56" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="R56" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y56" s="15"/>
     </row>
     <row r="57" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I57" s="14"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="25">
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="49">
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="R57" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S57" s="21"/>
       <c r="Y57" s="15"/>
     </row>
     <row r="58" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I58" s="14"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="26"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="W58" s="47"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="50"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="W58" s="43"/>
       <c r="Y58" s="15"/>
     </row>
     <row r="59" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I59" s="14"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="27"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="49"/>
+      <c r="K59" s="48"/>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="51"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="45"/>
       <c r="Y59" s="15"/>
     </row>
     <row r="60" spans="9:25" x14ac:dyDescent="0.3">
@@ -6103,18 +6102,18 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="50"/>
-      <c r="W60" s="51"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="47"/>
       <c r="Y60" s="15"/>
     </row>
     <row r="61" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I61" s="14"/>
       <c r="K61" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -6130,15 +6129,15 @@
     </row>
     <row r="62" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I62" s="14"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="25">
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="49">
         <v>0.17810000000000001</v>
       </c>
       <c r="R62" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S62" s="21"/>
       <c r="V62" s="24"/>
@@ -6147,34 +6146,34 @@
     </row>
     <row r="63" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I63" s="14"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="26"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="39"/>
-      <c r="V63" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="W63" s="47"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="50"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="W63" s="43"/>
       <c r="Y63" s="15"/>
     </row>
     <row r="64" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I64" s="14"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="27"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="49"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="51"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="45"/>
       <c r="Y64" s="15"/>
     </row>
     <row r="65" spans="9:25" x14ac:dyDescent="0.3">
@@ -6184,18 +6183,18 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="50"/>
-      <c r="W65" s="51"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="47"/>
       <c r="Y65" s="15"/>
     </row>
     <row r="66" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I66" s="14"/>
       <c r="K66" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -6211,15 +6210,15 @@
     </row>
     <row r="67" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I67" s="14"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="25">
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="49">
         <v>0.50380000000000003</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -6230,34 +6229,34 @@
     </row>
     <row r="68" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I68" s="14"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="26"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="W68" s="47"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="50"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="W68" s="43"/>
       <c r="Y68" s="15"/>
     </row>
     <row r="69" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I69" s="14"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="27"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="49"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="51"/>
+      <c r="R69" s="36"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="45"/>
       <c r="Y69" s="15"/>
     </row>
     <row r="70" spans="9:25" x14ac:dyDescent="0.3">
@@ -6267,18 +6266,18 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="41"/>
-      <c r="T70" s="41"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="50"/>
-      <c r="W70" s="51"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="47"/>
       <c r="Y70" s="15"/>
     </row>
     <row r="71" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I71" s="14"/>
       <c r="K71" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -6294,15 +6293,15 @@
     </row>
     <row r="72" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I72" s="14"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="25">
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="49">
         <v>0.24</v>
       </c>
       <c r="R72" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
@@ -6312,44 +6311,44 @@
     </row>
     <row r="73" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I73" s="14"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="26"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="W73" s="47"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="50"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="W73" s="43"/>
       <c r="Y73" s="15"/>
     </row>
     <row r="74" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I74" s="14"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="27"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="33"/>
-      <c r="T74" s="33"/>
-      <c r="U74" s="45"/>
-      <c r="V74" s="48"/>
-      <c r="W74" s="49"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="51"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="45"/>
       <c r="Y74" s="15"/>
     </row>
     <row r="75" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I75" s="14"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="50"/>
-      <c r="W75" s="51"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="47"/>
       <c r="Y75" s="15"/>
     </row>
     <row r="76" spans="9:25" x14ac:dyDescent="0.3">
@@ -6358,50 +6357,50 @@
     </row>
     <row r="77" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I77" s="14"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-      <c r="T77" s="33"/>
-      <c r="U77" s="33"/>
-      <c r="V77" s="33"/>
-      <c r="W77" s="33"/>
-      <c r="X77" s="33"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
       <c r="Y77" s="15"/>
     </row>
     <row r="78" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I78" s="14"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
-      <c r="U78" s="33"/>
-      <c r="V78" s="33"/>
-      <c r="W78" s="33"/>
-      <c r="X78" s="33"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
       <c r="Y78" s="15"/>
     </row>
     <row r="79" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I79" s="14"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
-      <c r="U79" s="33"/>
-      <c r="V79" s="33"/>
-      <c r="W79" s="33"/>
-      <c r="X79" s="33"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
       <c r="Y79" s="15"/>
     </row>
     <row r="80" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I80" s="14"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
-      <c r="U80" s="33"/>
-      <c r="V80" s="33"/>
-      <c r="W80" s="33"/>
-      <c r="X80" s="33"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
       <c r="Y80" s="15"/>
     </row>
     <row r="81" spans="9:25" x14ac:dyDescent="0.3">
@@ -6411,54 +6410,54 @@
     <row r="82" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I82" s="14"/>
       <c r="R82" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y82" s="15"/>
     </row>
     <row r="83" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I83" s="14"/>
       <c r="R83" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="S83" s="29"/>
+        <v>43</v>
+      </c>
+      <c r="S83" s="30"/>
       <c r="Y83" s="15"/>
     </row>
     <row r="84" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I84" s="14"/>
-      <c r="R84" s="37"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="W84" s="47"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="34"/>
+      <c r="T84" s="34"/>
+      <c r="U84" s="35"/>
+      <c r="V84" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W84" s="43"/>
       <c r="Y84" s="15"/>
     </row>
     <row r="85" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I85" s="14"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="45"/>
-      <c r="V85" s="48"/>
-      <c r="W85" s="49"/>
+      <c r="R85" s="36"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="38"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="45"/>
       <c r="Y85" s="15"/>
     </row>
     <row r="86" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I86" s="14"/>
-      <c r="R86" s="40"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="42"/>
-      <c r="V86" s="50"/>
-      <c r="W86" s="51"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="40"/>
+      <c r="T86" s="40"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="47"/>
       <c r="Y86" s="15"/>
     </row>
     <row r="87" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I87" s="14"/>
       <c r="J87" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
@@ -6470,27 +6469,27 @@
     </row>
     <row r="88" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I88" s="14"/>
-      <c r="J88" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
+      <c r="J88" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
       <c r="O88" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R88" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
       <c r="V88" s="24"/>
       <c r="W88" s="24"/>
       <c r="Y88" s="15"/>
@@ -6498,7 +6497,7 @@
     <row r="89" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I89" s="14"/>
       <c r="J89" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
@@ -6513,20 +6512,20 @@
       <c r="Q89" s="4">
         <v>38.75</v>
       </c>
-      <c r="R89" s="37"/>
-      <c r="S89" s="38"/>
-      <c r="T89" s="38"/>
-      <c r="U89" s="39"/>
-      <c r="V89" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="W89" s="47"/>
+      <c r="R89" s="33"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="W89" s="43"/>
       <c r="Y89" s="15"/>
     </row>
     <row r="90" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I90" s="14"/>
       <c r="J90" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K90" s="32"/>
       <c r="L90" s="32"/>
@@ -6541,18 +6540,18 @@
       <c r="Q90" s="4">
         <v>41.94</v>
       </c>
-      <c r="R90" s="44"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="45"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="49"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="38"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="45"/>
       <c r="Y90" s="15"/>
     </row>
     <row r="91" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I91" s="14"/>
       <c r="J91" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K91" s="32"/>
       <c r="L91" s="32"/>
@@ -6567,18 +6566,18 @@
       <c r="Q91" s="4">
         <v>49.79</v>
       </c>
-      <c r="R91" s="40"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="42"/>
-      <c r="V91" s="50"/>
-      <c r="W91" s="51"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="47"/>
       <c r="Y91" s="15"/>
     </row>
     <row r="92" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I92" s="14"/>
       <c r="J92" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K92" s="32"/>
       <c r="L92" s="32"/>
@@ -6604,45 +6603,45 @@
     <row r="93" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I93" s="14"/>
       <c r="R93" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="S93" s="52"/>
-      <c r="T93" s="52"/>
-      <c r="U93" s="52"/>
-      <c r="V93" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
       <c r="W93" s="24"/>
       <c r="Y93" s="15"/>
     </row>
     <row r="94" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I94" s="14"/>
-      <c r="R94" s="37"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="39"/>
-      <c r="V94" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="W94" s="47"/>
+      <c r="R94" s="33"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="W94" s="43"/>
       <c r="Y94" s="15"/>
     </row>
     <row r="95" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I95" s="14"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="33"/>
-      <c r="T95" s="33"/>
-      <c r="U95" s="45"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="49"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="45"/>
       <c r="Y95" s="15"/>
     </row>
     <row r="96" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I96" s="14"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="42"/>
-      <c r="V96" s="50"/>
-      <c r="W96" s="51"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="47"/>
       <c r="Y96" s="15"/>
     </row>
     <row r="97" spans="9:25" x14ac:dyDescent="0.3">
@@ -6658,44 +6657,44 @@
     <row r="98" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I98" s="14"/>
       <c r="R98" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="S98" s="52"/>
-      <c r="T98" s="29"/>
+        <v>46</v>
+      </c>
+      <c r="S98" s="29"/>
+      <c r="T98" s="30"/>
       <c r="V98" s="24"/>
       <c r="W98" s="24"/>
       <c r="Y98" s="15"/>
     </row>
     <row r="99" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I99" s="14"/>
-      <c r="R99" s="37"/>
-      <c r="S99" s="38"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="W99" s="47"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="35"/>
+      <c r="V99" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="W99" s="43"/>
       <c r="Y99" s="15"/>
     </row>
     <row r="100" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I100" s="14"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="33"/>
-      <c r="T100" s="33"/>
-      <c r="U100" s="45"/>
-      <c r="V100" s="48"/>
-      <c r="W100" s="49"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="37"/>
+      <c r="T100" s="37"/>
+      <c r="U100" s="38"/>
+      <c r="V100" s="44"/>
+      <c r="W100" s="45"/>
       <c r="Y100" s="15"/>
     </row>
     <row r="101" spans="9:25" x14ac:dyDescent="0.3">
       <c r="I101" s="14"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="42"/>
-      <c r="V101" s="50"/>
-      <c r="W101" s="51"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="40"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="47"/>
       <c r="Y101" s="15"/>
     </row>
     <row r="102" spans="9:25" x14ac:dyDescent="0.3">
@@ -6723,41 +6722,34 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="R88:T88"/>
-    <mergeCell ref="R93:V93"/>
-    <mergeCell ref="R98:T98"/>
-    <mergeCell ref="J88:N88"/>
-    <mergeCell ref="J91:N91"/>
-    <mergeCell ref="J89:N89"/>
-    <mergeCell ref="J90:N90"/>
-    <mergeCell ref="J92:N92"/>
-    <mergeCell ref="R89:U91"/>
-    <mergeCell ref="V89:W91"/>
-    <mergeCell ref="R94:U96"/>
-    <mergeCell ref="V94:W96"/>
-    <mergeCell ref="R99:U101"/>
-    <mergeCell ref="V99:W101"/>
-    <mergeCell ref="R68:U70"/>
-    <mergeCell ref="V68:W70"/>
-    <mergeCell ref="Q77:X80"/>
-    <mergeCell ref="R84:U86"/>
-    <mergeCell ref="V84:W86"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="V32:W34"/>
-    <mergeCell ref="V37:W39"/>
-    <mergeCell ref="V42:W44"/>
-    <mergeCell ref="V47:W49"/>
-    <mergeCell ref="K62:N64"/>
-    <mergeCell ref="K57:N59"/>
-    <mergeCell ref="O36:O38"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="O46:O48"/>
-    <mergeCell ref="O51:O53"/>
-    <mergeCell ref="O57:O59"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="V58:W60"/>
-    <mergeCell ref="R63:U65"/>
-    <mergeCell ref="V63:W65"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="O72:O74"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J19:P22"/>
+    <mergeCell ref="J25:M28"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E41"/>
     <mergeCell ref="K67:N69"/>
     <mergeCell ref="K72:N74"/>
     <mergeCell ref="Q24:S24"/>
@@ -6774,38 +6766,45 @@
     <mergeCell ref="K36:N38"/>
     <mergeCell ref="K46:N48"/>
     <mergeCell ref="K51:N53"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J19:P22"/>
-    <mergeCell ref="J25:M28"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="O67:O69"/>
-    <mergeCell ref="O72:O74"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="V32:W34"/>
+    <mergeCell ref="V37:W39"/>
+    <mergeCell ref="V42:W44"/>
+    <mergeCell ref="V47:W49"/>
+    <mergeCell ref="K62:N64"/>
+    <mergeCell ref="K57:N59"/>
+    <mergeCell ref="O36:O38"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="V58:W60"/>
+    <mergeCell ref="R63:U65"/>
+    <mergeCell ref="V63:W65"/>
+    <mergeCell ref="R99:U101"/>
+    <mergeCell ref="V99:W101"/>
+    <mergeCell ref="R68:U70"/>
+    <mergeCell ref="V68:W70"/>
+    <mergeCell ref="Q77:X80"/>
+    <mergeCell ref="R84:U86"/>
+    <mergeCell ref="V84:W86"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="R88:T88"/>
+    <mergeCell ref="R93:V93"/>
+    <mergeCell ref="R98:T98"/>
+    <mergeCell ref="J88:N88"/>
+    <mergeCell ref="J91:N91"/>
+    <mergeCell ref="J89:N89"/>
+    <mergeCell ref="J90:N90"/>
+    <mergeCell ref="J92:N92"/>
+    <mergeCell ref="R89:U91"/>
+    <mergeCell ref="V89:W91"/>
+    <mergeCell ref="R94:U96"/>
+    <mergeCell ref="V94:W96"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="31" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6814,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA7D938-1E31-4141-AEA5-0E948E01FF2D}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
@@ -6841,1441 +6840,864 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
       <c r="Q2" s="15"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
       <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
-      <c r="B15" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+        <v>41</v>
+      </c>
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
       <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
-      <c r="B19" s="58"/>
       <c r="C19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
       <c r="J19" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
       <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="25">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49">
         <v>0.14810000000000001</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="25">
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49">
         <v>0.08</v>
       </c>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="50"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="50"/>
       <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="51"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="51"/>
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
-      <c r="B23" s="58"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
-      <c r="B24" s="58"/>
       <c r="C24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
       <c r="J24" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="30"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="25">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49">
         <v>0.01</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="25">
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="49">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
       <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="50"/>
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="51"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="51"/>
       <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="58"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
       <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="58"/>
       <c r="C29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
       <c r="J29" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="25">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49">
         <v>0.01</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="25">
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49">
         <v>0.02</v>
       </c>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="50"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="50"/>
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="51"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="51"/>
       <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="58"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
       <c r="Q33" s="15"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
-      <c r="B34" s="58"/>
       <c r="C34" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
       <c r="J34" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="30"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
       <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="53">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="57">
         <v>0.83589999999999998</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="53">
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="57">
         <v>0.87929999999999997</v>
       </c>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
       <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="57"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="57"/>
       <c r="Q36" s="15"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="57"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="57"/>
       <c r="Q37" s="15"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
       <c r="Q38" s="15"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
       <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
-      <c r="B40" s="58"/>
       <c r="C40" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
       <c r="J40" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
       <c r="Q40" s="15"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="25">
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49">
         <v>0.1181</v>
       </c>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="25">
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="49">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
       <c r="Q41" s="15"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="50"/>
       <c r="Q42" s="15"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="51"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="51"/>
       <c r="Q43" s="15"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="58"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
       <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="58"/>
       <c r="C45" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
       <c r="J45" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="30"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
       <c r="Q45" s="15"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="25">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="25">
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="49">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
       <c r="Q46" s="15"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="50"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="50"/>
       <c r="Q47" s="15"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="51"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="51"/>
       <c r="Q48" s="15"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
-      <c r="B49" s="58"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
       <c r="Q49" s="15"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
-      <c r="B50" s="58"/>
       <c r="C50" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="30"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
       <c r="J50" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="30"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
       <c r="Q50" s="15"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="25">
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49">
         <v>0.01</v>
       </c>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="25">
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="49">
         <v>0.03</v>
       </c>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
       <c r="Q51" s="15"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="50"/>
       <c r="Q52" s="15"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="51"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="51"/>
       <c r="Q53" s="15"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
-      <c r="B54" s="58"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
       <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
-      <c r="B55" s="58"/>
       <c r="C55" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
       <c r="J55" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
       <c r="Q55" s="15"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="14"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="53">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="57">
         <v>0.8619</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="53">
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="57">
         <v>0.84189999999999998</v>
       </c>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
       <c r="Q56" s="15"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="14"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="57"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="57"/>
       <c r="Q57" s="15"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="57"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="57"/>
       <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="14"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
       <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
       <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
-      <c r="B61" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
       <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
       <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
       <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
       <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
       <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" t="s">
+        <v>75</v>
+      </c>
       <c r="Q67" s="15"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="58"/>
       <c r="C68" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="30"/>
       <c r="K68" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30"/>
       <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="53"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="P69" s="53"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="57"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" s="57"/>
       <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
       <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
       <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
-      <c r="B72" s="58"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -8286,99 +7708,82 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
-      <c r="B73" s="58"/>
       <c r="C73" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="30"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
       <c r="K73" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
       <c r="O73" s="22"/>
-      <c r="P73" s="58"/>
       <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H74" s="53"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="P74" s="53"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="57"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="P74" s="57"/>
       <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="53"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="53"/>
-      <c r="P75" s="53"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
       <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="53"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
       <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
-      <c r="B77" s="58"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -8389,99 +7794,82 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
-      <c r="B78" s="58"/>
       <c r="C78" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
-      <c r="F78" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="30"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="58"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
       <c r="K78" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="30"/>
       <c r="O78" s="22"/>
-      <c r="P78" s="58"/>
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" s="53"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="P79" s="53"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H79" s="57"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="P79" s="57"/>
       <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="57"/>
+      <c r="P80" s="57"/>
       <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="53"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="K81" s="48"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
       <c r="Q81" s="15"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
-      <c r="B82" s="58"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -8492,225 +7880,164 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
-      <c r="B83" s="58"/>
       <c r="C83" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="30"/>
       <c r="G83" s="22"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
       <c r="K83" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="30"/>
       <c r="O83" s="22"/>
-      <c r="P83" s="58"/>
       <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" s="53"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="P84" s="53"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" s="57"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="P84" s="57"/>
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="53"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="53"/>
-      <c r="P85" s="53"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="57"/>
+      <c r="P85" s="57"/>
       <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="53"/>
-      <c r="P86" s="53"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="57"/>
+      <c r="P86" s="57"/>
       <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="58"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="58"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="58"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="58"/>
-      <c r="P87" s="58"/>
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="14"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" s="58"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="L88" s="58"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="58"/>
-      <c r="P88" s="58"/>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" t="s">
+        <v>76</v>
+      </c>
       <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
-      <c r="B89" s="58"/>
       <c r="C89" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="30"/>
       <c r="K89" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="30"/>
       <c r="Q89" s="15"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="H90" s="53"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="P90" s="53"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" s="57"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P90" s="57"/>
       <c r="Q90" s="15"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="57"/>
+      <c r="P91" s="57"/>
       <c r="Q91" s="15"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="53"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="53"/>
-      <c r="P92" s="53"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="57"/>
+      <c r="P92" s="57"/>
       <c r="Q92" s="15"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
-      <c r="B93" s="58"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -8721,99 +8048,82 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="58"/>
       <c r="C94" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="22"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
       <c r="K94" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="30"/>
       <c r="O94" s="22"/>
-      <c r="P94" s="58"/>
       <c r="Q94" s="15"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="H95" s="53"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="P95" s="53"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" s="57"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P95" s="57"/>
       <c r="Q95" s="15"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="57"/>
       <c r="Q96" s="15"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="57"/>
+      <c r="P97" s="57"/>
       <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="58"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -8824,99 +8134,82 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
-      <c r="B99" s="58"/>
       <c r="C99" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="22"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
       <c r="K99" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="29"/>
+        <v>72</v>
+      </c>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="30"/>
       <c r="O99" s="22"/>
-      <c r="P99" s="58"/>
       <c r="Q99" s="15"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="14"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H100" s="53"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="P100" s="53"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" s="57"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P100" s="57"/>
       <c r="Q100" s="15"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="K101" s="48"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="48"/>
+      <c r="O101" s="57"/>
+      <c r="P101" s="57"/>
       <c r="Q101" s="15"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="53"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="31"/>
-      <c r="L102" s="31"/>
-      <c r="M102" s="31"/>
-      <c r="N102" s="31"/>
-      <c r="O102" s="53"/>
-      <c r="P102" s="53"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="K102" s="48"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="48"/>
+      <c r="N102" s="48"/>
+      <c r="O102" s="57"/>
+      <c r="P102" s="57"/>
       <c r="Q102" s="15"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="14"/>
-      <c r="B103" s="58"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -8927,212 +8220,129 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
-      <c r="B104" s="58"/>
       <c r="C104" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
-      <c r="F104" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="22"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
       <c r="K104" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L104" s="52"/>
-      <c r="M104" s="52"/>
-      <c r="N104" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="L104" s="29"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="30"/>
       <c r="O104" s="22"/>
-      <c r="P104" s="58"/>
       <c r="Q104" s="15"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="H105" s="53"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="31"/>
-      <c r="L105" s="31"/>
-      <c r="M105" s="31"/>
-      <c r="N105" s="31"/>
-      <c r="O105" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="P105" s="53"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" s="57"/>
+      <c r="K105" s="48"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="48"/>
+      <c r="N105" s="48"/>
+      <c r="O105" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P105" s="57"/>
       <c r="Q105" s="15"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="53"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
-      <c r="O106" s="53"/>
-      <c r="P106" s="53"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="K106" s="48"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
+      <c r="N106" s="48"/>
+      <c r="O106" s="57"/>
+      <c r="P106" s="57"/>
       <c r="Q106" s="15"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="53"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="31"/>
-      <c r="O107" s="53"/>
-      <c r="P107" s="53"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="48"/>
+      <c r="N107" s="48"/>
+      <c r="O107" s="57"/>
+      <c r="P107" s="57"/>
       <c r="Q107" s="15"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
-      <c r="O108" s="58"/>
-      <c r="P108" s="58"/>
       <c r="Q108" s="15"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="58"/>
-      <c r="L109" s="58"/>
-      <c r="M109" s="58"/>
-      <c r="N109" s="58"/>
-      <c r="O109" s="58"/>
-      <c r="P109" s="58"/>
       <c r="Q109" s="15"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="14"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="58"/>
-      <c r="L110" s="58"/>
-      <c r="M110" s="58"/>
-      <c r="N110" s="58"/>
-      <c r="O110" s="58"/>
-      <c r="P110" s="58"/>
       <c r="Q110" s="15"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G111" s="58"/>
-      <c r="H111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="58"/>
-      <c r="L111" s="58"/>
-      <c r="M111" s="58"/>
-      <c r="N111" s="58"/>
-      <c r="O111" s="58"/>
-      <c r="P111" s="58"/>
+      <c r="F111" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="Q111" s="15"/>
     </row>
     <row r="112" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G112" s="55"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="55"/>
-      <c r="J112" s="55"/>
-      <c r="K112" s="56" t="s">
+      <c r="F112" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G112" s="56"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L112" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="L112" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="M112" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="N112" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="O112" s="58"/>
-      <c r="P112" s="58"/>
+      <c r="M112" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="N112" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="Q112" s="15"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
       <c r="F113" s="32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G113" s="32"/>
       <c r="H113" s="32"/>
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
-      <c r="K113" s="54">
+      <c r="K113" s="25">
         <v>5.74</v>
       </c>
-      <c r="L113" s="54">
+      <c r="L113" s="25">
         <v>0.39</v>
       </c>
       <c r="M113" s="4">
@@ -9141,18 +8351,12 @@
       <c r="N113" s="4">
         <v>32.39</v>
       </c>
-      <c r="O113" s="58"/>
-      <c r="P113" s="58"/>
       <c r="Q113" s="15"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
       <c r="F114" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G114" s="32"/>
       <c r="H114" s="32"/>
@@ -9170,18 +8374,12 @@
       <c r="N114" s="4">
         <v>36.15</v>
       </c>
-      <c r="O114" s="58"/>
-      <c r="P114" s="58"/>
       <c r="Q114" s="15"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
-      <c r="B115" s="58"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
       <c r="F115" s="32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G115" s="32"/>
       <c r="H115" s="32"/>
@@ -9199,18 +8397,12 @@
       <c r="N115" s="4">
         <v>43.78</v>
       </c>
-      <c r="O115" s="58"/>
-      <c r="P115" s="58"/>
       <c r="Q115" s="15"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="58"/>
-      <c r="E116" s="58"/>
       <c r="F116" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G116" s="32"/>
       <c r="H116" s="32"/>
@@ -9228,8 +8420,6 @@
       <c r="N116" s="4">
         <v>29.84</v>
       </c>
-      <c r="O116" s="58"/>
-      <c r="P116" s="58"/>
       <c r="Q116" s="15"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,56 +8443,35 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="F114:J114"/>
-    <mergeCell ref="F115:J115"/>
-    <mergeCell ref="F116:J116"/>
-    <mergeCell ref="K99:N99"/>
-    <mergeCell ref="K100:N102"/>
-    <mergeCell ref="O100:P102"/>
-    <mergeCell ref="K104:N104"/>
-    <mergeCell ref="K105:N107"/>
-    <mergeCell ref="O105:P107"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N92"/>
-    <mergeCell ref="O90:P92"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N97"/>
-    <mergeCell ref="O95:P97"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N81"/>
-    <mergeCell ref="O79:P81"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N86"/>
-    <mergeCell ref="O84:P86"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N71"/>
-    <mergeCell ref="O69:P71"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N76"/>
-    <mergeCell ref="O74:P76"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F102"/>
-    <mergeCell ref="G100:H102"/>
-    <mergeCell ref="C104:F104"/>
-    <mergeCell ref="C105:F107"/>
-    <mergeCell ref="G105:H107"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="C90:F92"/>
-    <mergeCell ref="G90:H92"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C95:F97"/>
-    <mergeCell ref="G95:H97"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C84:F86"/>
-    <mergeCell ref="G69:H71"/>
-    <mergeCell ref="G74:H76"/>
-    <mergeCell ref="G79:H81"/>
-    <mergeCell ref="G84:H86"/>
-    <mergeCell ref="C74:F76"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="C79:F81"/>
+    <mergeCell ref="J51:M53"/>
+    <mergeCell ref="N51:N53"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M58"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="C51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M27"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M32"/>
+    <mergeCell ref="N30:N32"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M48"/>
+    <mergeCell ref="N46:N48"/>
+    <mergeCell ref="J50:M50"/>
     <mergeCell ref="B62:H65"/>
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="C69:F71"/>
@@ -9327,37 +8496,59 @@
     <mergeCell ref="C46:F48"/>
     <mergeCell ref="G46:G48"/>
     <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M22"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M27"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M32"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M48"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M53"/>
-    <mergeCell ref="N51:N53"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M58"/>
-    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N71"/>
+    <mergeCell ref="O69:P71"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N76"/>
+    <mergeCell ref="O74:P76"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F102"/>
+    <mergeCell ref="G100:H102"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:F92"/>
+    <mergeCell ref="G90:H92"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F97"/>
+    <mergeCell ref="G95:H97"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C84:F86"/>
+    <mergeCell ref="G69:H71"/>
+    <mergeCell ref="G74:H76"/>
+    <mergeCell ref="G79:H81"/>
+    <mergeCell ref="G84:H86"/>
+    <mergeCell ref="C74:F76"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C79:F81"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N92"/>
+    <mergeCell ref="O90:P92"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N97"/>
+    <mergeCell ref="O95:P97"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N81"/>
+    <mergeCell ref="O79:P81"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N86"/>
+    <mergeCell ref="O84:P86"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="F114:J114"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="K99:N99"/>
+    <mergeCell ref="K100:N102"/>
+    <mergeCell ref="O100:P102"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="K105:N107"/>
+    <mergeCell ref="O105:P107"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C105:F107"/>
+    <mergeCell ref="G105:H107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="29" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>